--- a/organisation/timeReportShortDiary.xlsx
+++ b/organisation/timeReportShortDiary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="1340" yWindow="0" windowWidth="25180" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t xml:space="preserve">Datum </t>
   </si>
@@ -60,9 +60,6 @@
     <t>100 p. Antenna Book</t>
   </si>
   <si>
-    <t>Read Stellans M. Th</t>
-  </si>
-  <si>
     <t>ti</t>
   </si>
   <si>
@@ -88,13 +85,34 @@
   </si>
   <si>
     <t>v3 må</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Stellans M. Th, ch 1 Antenna book, set up diary and reading, ch2 p 46 </t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>video openMP, coding</t>
+  </si>
+  <si>
+    <t>Extra []</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>QFT, finding courses</t>
+  </si>
+  <si>
+    <t>Found good quality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,8 +148,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +197,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6FCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -208,6 +243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -545,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -555,16 +593,18 @@
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25">
+    <row r="1" spans="1:11" ht="25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:11" ht="18">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -584,89 +624,120 @@
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" customHeight="1">
       <c r="A8" s="1">
         <v>42159</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(B8+E8+I8)</f>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>42160</v>
       </c>
       <c r="C9" s="10"/>
       <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>42161</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>42162</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18">
       <c r="A12" s="1">
         <v>42163</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>42164</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>42165</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>42166</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>42167</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -674,7 +745,7 @@
         <v>42168</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -682,7 +753,7 @@
         <v>42169</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
@@ -690,7 +761,7 @@
         <v>42170</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -698,7 +769,7 @@
         <v>42171</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -709,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -717,7 +788,7 @@
         <v>42173</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -725,7 +796,7 @@
         <v>42174</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -733,7 +804,7 @@
         <v>42175</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -741,7 +812,7 @@
         <v>42176</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
